--- a/reference/scrape_assets/GuildScrape.xlsx
+++ b/reference/scrape_assets/GuildScrape.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williambricker/Library/CloudStorage/GoogleDrive-wbricker3@gmail.com/My Drive/Professional/Job/research_prep_cases/FirstMark/reference/scrape_assets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41512B0D-7625-F942-BC68-22CFDDAA5439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="41120" windowHeight="26580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="GuildScrape" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="guild_norm" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet1" sheetId="3" r:id="rId6"/>
+    <sheet name="GuildScrape" sheetId="1" r:id="rId1"/>
+    <sheet name="guild_norm" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="azV89E+cp9zTSpSJdnrJUb8xcwOoVi9gEsfgbPyf4wg="/>
@@ -743,40 +752,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -784,82 +797,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF356854"/>
-          <bgColor rgb="FF356854"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6F8F9"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <border>
         <left style="thin">
@@ -876,48 +851,68 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="4" pivot="0" name="guild_norm-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    <tableStyle name="guild_norm-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H64" displayName="Table1" name="Table1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H64">
   <tableColumns count="8">
-    <tableColumn name="full_name" id="1"/>
-    <tableColumn name="title_raw" id="2"/>
-    <tableColumn name="company" id="3"/>
-    <tableColumn name="misc_liheadline" id="4"/>
-    <tableColumn name="source" id="5"/>
-    <tableColumn name="is_founder" id="6"/>
-    <tableColumn name="title_normalized" id="7"/>
-    <tableColumn name="domain" id="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="full_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="title_raw"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="company"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="misc_liheadline"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="source"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="is_founder"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="title_normalized"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="domain"/>
   </tableColumns>
-  <tableStyleInfo name="guild_norm-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="guild_norm-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1107,27 +1102,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.11"/>
-    <col customWidth="1" min="2" max="2" width="21.78"/>
-    <col customWidth="1" min="3" max="4" width="18.33"/>
-    <col customWidth="1" min="5" max="5" width="13.67"/>
-    <col customWidth="1" min="6" max="25" width="10.56"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="25" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1172,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1186,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1200,7 +1195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1214,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1228,7 +1223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1242,7 +1237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1256,7 +1251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1270,7 +1265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1284,7 +1279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1298,7 +1293,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1312,7 +1307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1326,7 +1321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1340,7 +1335,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -1354,7 +1349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1371,7 +1366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -1388,7 +1383,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1405,7 +1400,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -1419,7 +1414,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -1436,7 +1431,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -1450,7 +1445,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -1464,7 +1459,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -1481,7 +1476,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
@@ -1495,7 +1490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
@@ -1512,7 +1507,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
@@ -1529,7 +1524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
@@ -1546,7 +1541,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>85</v>
       </c>
@@ -1563,7 +1558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>88</v>
       </c>
@@ -1574,7 +1569,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
@@ -1591,7 +1586,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
@@ -1608,7 +1603,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>97</v>
       </c>
@@ -1623,7 +1618,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
@@ -1640,7 +1635,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>103</v>
       </c>
@@ -1655,7 +1650,7 @@
       </c>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -1672,7 +1667,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>110</v>
       </c>
@@ -1690,7 +1685,7 @@
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>114</v>
       </c>
@@ -1707,7 +1702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
@@ -1718,7 +1713,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>120</v>
       </c>
@@ -1735,7 +1730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
@@ -1752,7 +1747,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>128</v>
       </c>
@@ -1769,7 +1764,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>132</v>
       </c>
@@ -1786,7 +1781,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>136</v>
       </c>
@@ -1803,7 +1798,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>139</v>
       </c>
@@ -1820,7 +1815,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>143</v>
       </c>
@@ -1835,7 +1830,7 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>146</v>
       </c>
@@ -1850,7 +1845,7 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>149</v>
       </c>
@@ -1864,7 +1859,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>150</v>
       </c>
@@ -1881,7 +1876,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>153</v>
       </c>
@@ -1895,7 +1890,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>155</v>
       </c>
@@ -1909,7 +1904,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
@@ -1923,7 +1918,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>159</v>
       </c>
@@ -1937,7 +1932,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>161</v>
       </c>
@@ -1951,7 +1946,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>165</v>
       </c>
@@ -1965,7 +1960,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>167</v>
       </c>
@@ -1979,7 +1974,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>169</v>
       </c>
@@ -1993,7 +1988,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>171</v>
       </c>
@@ -2007,7 +2002,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>165</v>
       </c>
@@ -2021,7 +2016,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>17</v>
       </c>
@@ -2035,7 +2030,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>176</v>
       </c>
@@ -2049,7 +2044,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -2063,7 +2058,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>181</v>
       </c>
@@ -2077,7 +2072,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>183</v>
       </c>
@@ -2091,7 +2086,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>185</v>
       </c>
@@ -2105,7 +2100,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>187</v>
       </c>
@@ -2119,7 +2114,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>189</v>
       </c>
@@ -2133,7 +2128,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>190</v>
       </c>
@@ -2147,7 +2142,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>192</v>
       </c>
@@ -2162,7 +2157,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>193</v>
       </c>
@@ -2176,7 +2171,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>196</v>
       </c>
@@ -2193,7 +2188,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>25</v>
       </c>
@@ -2207,7 +2202,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>198</v>
       </c>
@@ -2221,7 +2216,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>200</v>
       </c>
@@ -2235,7 +2230,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>202</v>
       </c>
@@ -2249,7 +2244,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>205</v>
       </c>
@@ -2263,7 +2258,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>208</v>
       </c>
@@ -2277,961 +2272,957 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.44"/>
-    <col customWidth="1" min="2" max="2" width="22.11"/>
-    <col customWidth="1" min="3" max="3" width="33.44"/>
-    <col customWidth="1" min="4" max="4" width="18.33"/>
-    <col customWidth="1" min="5" max="5" width="13.67"/>
-    <col customWidth="1" min="6" max="7" width="21.78"/>
-    <col customWidth="1" min="8" max="8" width="18.33"/>
-    <col customWidth="1" min="9" max="28" width="10.56"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="28" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3257,7 +3248,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>78</v>
       </c>
@@ -3274,7 +3265,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
@@ -3288,7 +3279,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>149</v>
       </c>
@@ -3302,7 +3293,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -3316,7 +3307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -3330,7 +3321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>189</v>
       </c>
@@ -3344,7 +3335,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
@@ -3358,7 +3349,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -3373,7 +3364,7 @@
       </c>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>181</v>
       </c>
@@ -3388,7 +3379,7 @@
       </c>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -3402,7 +3393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>157</v>
       </c>
@@ -3416,7 +3407,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>200</v>
       </c>
@@ -3430,7 +3421,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>53</v>
       </c>
@@ -3447,7 +3438,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>68</v>
       </c>
@@ -3464,7 +3455,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>202</v>
       </c>
@@ -3478,7 +3469,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>183</v>
       </c>
@@ -3492,7 +3483,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>136</v>
       </c>
@@ -3509,7 +3500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
@@ -3523,7 +3514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>187</v>
       </c>
@@ -3537,7 +3528,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>159</v>
       </c>
@@ -3551,7 +3542,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
@@ -3565,7 +3556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>165</v>
       </c>
@@ -3579,7 +3570,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>114</v>
       </c>
@@ -3596,7 +3587,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>139</v>
       </c>
@@ -3613,7 +3604,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
@@ -3627,7 +3618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>106</v>
       </c>
@@ -3644,7 +3635,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>40</v>
       </c>
@@ -3658,7 +3649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>60</v>
       </c>
@@ -3678,7 +3669,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>128</v>
       </c>
@@ -3695,7 +3686,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>153</v>
       </c>
@@ -3710,7 +3701,7 @@
       </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>176</v>
       </c>
@@ -3724,7 +3715,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>17</v>
       </c>
@@ -3738,7 +3729,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>205</v>
       </c>
@@ -3752,7 +3743,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>99</v>
       </c>
@@ -3769,7 +3760,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>185</v>
       </c>
@@ -3783,7 +3774,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>190</v>
       </c>
@@ -3797,7 +3788,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>155</v>
       </c>
@@ -3811,7 +3802,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>34</v>
       </c>
@@ -3825,7 +3816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>120</v>
       </c>
@@ -3842,7 +3833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>124</v>
       </c>
@@ -3859,7 +3850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>90</v>
       </c>
@@ -3877,7 +3868,7 @@
       </c>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>161</v>
       </c>
@@ -3892,7 +3883,7 @@
       </c>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>169</v>
       </c>
@@ -3906,7 +3897,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>146</v>
       </c>
@@ -3923,11 +3914,11 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>214</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -3937,7 +3928,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>81</v>
       </c>
@@ -3954,7 +3945,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>150</v>
       </c>
@@ -3968,7 +3959,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>75</v>
       </c>
@@ -3985,7 +3976,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>208</v>
       </c>
@@ -3999,7 +3990,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>167</v>
       </c>
@@ -4013,7 +4004,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>110</v>
       </c>
@@ -4030,7 +4021,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>11</v>
       </c>
@@ -4044,7 +4035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>178</v>
       </c>
@@ -4058,7 +4049,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>25</v>
       </c>
@@ -4072,7 +4063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>25</v>
       </c>
@@ -4086,7 +4077,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>132</v>
       </c>
@@ -4103,7 +4094,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>9</v>
       </c>
@@ -4117,7 +4108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>198</v>
       </c>
@@ -4131,7 +4122,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>93</v>
       </c>
@@ -4148,7 +4139,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>49</v>
       </c>
@@ -4165,7 +4156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>85</v>
       </c>
@@ -4182,7 +4173,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>192</v>
       </c>
@@ -4197,7 +4188,7 @@
       </c>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>196</v>
       </c>
@@ -4211,951 +4202,952 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="D1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D1" s="8" t="s">
         <v>215</v>
       </c>
@@ -5163,7 +5155,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D2" s="2" t="s">
         <v>162</v>
       </c>
@@ -5171,115 +5163,116 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3">
-      <c r="D3" s="8" t="s">
+    <row r="3" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
         <v>218</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4">
-      <c r="D4" s="8" t="s">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="5">
-      <c r="D5" s="8" t="s">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6">
-      <c r="D6" s="8" t="s">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="7">
-      <c r="D7" s="8" t="s">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="8">
-      <c r="D8" s="8" t="s">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
         <v>226</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9">
-      <c r="D9" s="8" t="s">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10">
-      <c r="D10" s="8" t="s">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11">
-      <c r="D11" s="8" t="s">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="12">
-      <c r="D12" s="8" t="s">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="13">
-      <c r="D13" s="8" t="s">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="14">
-      <c r="D14" s="8" t="s">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="15">
-      <c r="D15" s="8" t="s">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="16">
-      <c r="D16" s="8" t="s">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="17">
-      <c r="D17" s="8" t="s">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="18">
-      <c r="D18" s="8" t="s">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="19">
-      <c r="D19" s="8" t="s">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="20">
-      <c r="D20" s="8" t="s">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
         <v>239</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>